--- a/biology/Médecine/1789_en_santé_et_médecine/1789_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1789_en_santé_et_médecine/1789_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1789_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1789_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1789 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1789_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1789_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>23 janvier : l'université de Georgetown est fondée à Washington D.C..
-Avril : épidémie de variole à Port Jackson en Australie. Elle se diffuse parmi les aborigènes de la région dont la moitié est décimée[1].
+Avril : épidémie de variole à Port Jackson en Australie. Elle se diffuse parmi les aborigènes de la région dont la moitié est décimée.
 9 mai : aux États-Unis, influencés par le Dr.Benjamin Rush, qui critique la consommation excessive d'alcool, environ 200 fermiers du Connecticut forment une association de modération à Litchfield.
-10 octobre : le docteur Joseph-Ignace Guillotin propose à l'Assemblée la guillotine[2].
+10 octobre : le docteur Joseph-Ignace Guillotin propose à l'Assemblée la guillotine.
 Première description clinique de la poliomyélite par Michael Underwood ; il la qualifie de "débilité des membres inférieurs".</t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1789_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1789_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Du degré de certitude de la médecine de Georges Cabanis[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Du degré de certitude de la médecine de Georges Cabanis.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1789_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1789_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>3 janvier : Carl Gustav Carus (mort en 1869), médecin et peintre saxon.
 25 octobre : Heinrich Schwabe (mort en 1875), pharmacien puis astronome allemand.</t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1789_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1789_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7 avril : Petrus Camper (né en 1722), médecin, naturaliste et biologiste néerlandais[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>7 avril : Petrus Camper (né en 1722), médecin, naturaliste et biologiste néerlandais.
 4 août : Jean Colombier (né en 1736), médecin militaire, chirurgien et hygiéniste français.</t>
         </is>
       </c>
